--- a/medicine/Handicap/Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France/Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France.xlsx
+++ b/medicine/Handicap/Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France/Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aides_sp%C3%A9cialis%C3%A9es_%C3%A0_dominante_r%C3%A9%C3%A9ducative_au_sein_de_l%27%C3%89ducation_nationale_en_France</t>
+          <t>Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les "enseignants chargés d'aides spécialisées à dominante rééducative", communément appelés "rééducateurs de l'Éducation nationale" ou "maîtres G", étaient des professeurs des écoles ayant bénéficié d'une formation supplémentaire diplômante après plusieurs années d'exercice en qualité d'enseignant non-spécialisé. Il existait des maîtres G dans l'enseignement public et dans l'enseignement privé.
 Aujourd'hui, ils sont remplacés par les enseignants spécialisés à dominante relationnelle. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aides_sp%C3%A9cialis%C3%A9es_%C3%A0_dominante_r%C3%A9%C3%A9ducative_au_sein_de_l%27%C3%89ducation_nationale_en_France</t>
+          <t>Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Place dans l'institution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rééducateurs de l'Éducation nationale intervenaient généralement dans les écoles maternelles et élémentaires ; ils faisaient alors partie des "réseaux d'aides spécialisées aux élèves en difficulté" (RASED) qui comprennaient également des psychologues scolaires et des enseignants chargés d'aides spécialisées à dominante pédagogique (appelés communément "maîtres E"). Certains exercaient dans un établissement spécialisé ou un centre médico-psycho-pédagogique (CMPP).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aides_sp%C3%A9cialis%C3%A9es_%C3%A0_dominante_r%C3%A9%C3%A9ducative_au_sein_de_l%27%C3%89ducation_nationale_en_France</t>
+          <t>Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec les enfants, les rééducateurs de l'Éducation nationale utilisaient principalement la médiation du jeu à des fins d'ajustement des comportements, d'amélioration de l'autocontrôle des émotions ou des pulsions, d'instauration ou de restauration de l'estime de soi et du désir d'apprendre. Ce travail à l'interface des sphères affective et cognitive aidait l'élève à s'adapter aux exigences du milieu scolaire et à entrer avec plus d'efficacité dans les apprentissages. La fonction de rééducateur de l'Éducation nationale française présentait de fortes similitudes avec celle de play therapist dans les pays anglo-saxons.
 Les rééducateurs de l'Éducation nationale prenaient les élèves individuellement ou par petits groupes de trois ou quatre. Les rééducations duraient souvent une année scolaire, mais pouvaient également être plus courtes. Les décisions de prise en charge étaient généralement prises à l'issue d'une réunion de synthèse regroupant le personnel du RASED ; l'accord des parents est requis.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aides_sp%C3%A9cialis%C3%A9es_%C3%A0_dominante_r%C3%A9%C3%A9ducative_au_sein_de_l%27%C3%89ducation_nationale_en_France</t>
+          <t>Aides_spécialisées_à_dominante_rééducative_au_sein_de_l'Éducation_nationale_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Formation et identité professionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rééducateurs de l'Éducation nationale étaient formés dans des Ecoles Supérieures du Professorat et de l'Education (ESPE). La formation, sanctionnait par un examen, dure un an ; elle était entrecoupée de périodes d'exercice de la fonction au sein d'un RASED.
 Si, pour des raisons en partie explicables par l'histoire de la psychologie clinique en France, les thèses freudiennes tiennent une place significative dans les contenus de la formation, cette référence ne transparaissaient guère, de fait, dans une pratique étayée pour une bonne part par une praxéologie propre à la profession.
